--- a/2.0/extracted_data.xlsx
+++ b/2.0/extracted_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,7 +434,7 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="33" customWidth="1" min="2" max="2"/>
+    <col width="48" customWidth="1" min="2" max="2"/>
     <col width="11" customWidth="1" min="3" max="3"/>
     <col width="10" customWidth="1" min="4" max="4"/>
     <col width="9" customWidth="1" min="5" max="5"/>
@@ -470,589 +470,2815 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2024-10-01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Apple Pay Top-Up by *2180</t>
+          <t>Reference: From SHUK HEI MOK</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>43.29</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>56.54</v>
+        <v>7.43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-04-01</t>
+          <t>2024-10-03</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Apple Pay Top-Up by *1 573</t>
+          <t>Reference: From NANXI LIJ &amp; PUI CHI ANGIE WONG</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>29.74</v>
       </c>
       <c r="E3" t="n">
-        <v>70.54000000000001</v>
+        <v>147.17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2024-10-03</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Www.cardiff.ac.uk</t>
+          <t>To TS Kwong</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>61.54</v>
+        <v>127.17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2024-10-03</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Www.cardiff.ac.uk</t>
+          <t>To Yen Hei Bryan Cheung</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>52.54</v>
+        <v>119.17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-04-04</t>
+          <t>2024-10-03</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sainsbury's</t>
+          <t>Reference: From SHUK HEI MOK</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>48.79</v>
+        <v>120.17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2024-10-03</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Www.cardiff.ac.uk</t>
+          <t>Reference: To CHAK LUNG DRACO TSUI</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>39.79</v>
+        <v>108.17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-04-05</t>
+          <t>2024-10-03</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Www.cardiff.ac.uk</t>
+          <t>Payment from Lee</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>30.79</v>
+        <v>109.17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2024-10-03</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>To Ching Yin Siu</t>
+          <t>Payment from Che&amp;che</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>10.15</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>20.64</v>
+        <v>111.17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-04-11</t>
+          <t>2024-10-04</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Apple Pay Top-Up by *1 573</t>
+          <t>InsureandGo</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>5.26</v>
       </c>
       <c r="D10" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>50.64</v>
+        <v>105.91</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2024-10-09</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Www.cardiff.ac.uk</t>
+          <t>To Ka Chun To</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>41.64</v>
+        <v>86.91</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2024-10-10</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Www.cardiff.ac.uk</t>
+          <t>To TS Kwong</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>9</v>
+        <v>5.5</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>32.64</v>
+        <v>81.41</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2024-10-11</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Www.cardiff.ac.uk</t>
+          <t>Payment from Kw</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>23.64</v>
+        <v>91.20999999999999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-04-12</t>
+          <t>2024-10-11</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Www.cardiff.ac.uk</t>
+          <t>Reference: To SHUK HEI MOK</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>9</v>
+        <v>19.6</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>14.64</v>
+        <v>71.61</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-04-14</t>
+          <t>2024-10-13</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Apple Pay Top-Up by *2180</t>
+          <t>Payment from Foh Yu Lee</t>
         </is>
       </c>
       <c r="C15" t="n">
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>50</v>
+        <v>6.8</v>
       </c>
       <c r="E15" t="n">
-        <v>64.64</v>
+        <v>78.41</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-04-15</t>
+          <t>2024-10-14</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Onerway</t>
+          <t>Reference: To NANXI LU</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>31.26</v>
+        <v>4.99</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>33.38</v>
+        <v>73.42</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2024-10-15</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Sainsbury's</t>
+          <t>Www.cardiff.ac.uk</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3.69</v>
+        <v>9</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>29.69</v>
+        <v>64.42</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2024-10-15</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>KFC</t>
+          <t>To Ka Chun To</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5.97</v>
+        <v>9.9</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>23.72</v>
+        <v>54.52</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-04-17</t>
+          <t>2024-10-15</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Www.cardiff.ac.uk</t>
+          <t>Payment from Kw</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>15.8</v>
       </c>
       <c r="E19" t="n">
-        <v>14.72</v>
+        <v>56.32</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2024-10-15</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Apple Pay Top-Up by *2180</t>
+          <t>Reference: From SHUK HEI MOK</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>10</v>
+        <v>46.5</v>
       </c>
       <c r="E20" t="n">
-        <v>24.72</v>
+        <v>58.12</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-04-21</t>
+          <t>2024-10-15</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>To Chung Ho Ling</t>
+          <t>Payment from Sze Ho Pok</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5.29</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E21" t="n">
-        <v>19.43</v>
+        <v>59.92</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-04-22</t>
+          <t>2024-10-16</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Apple Pay Top-Up by *2180</t>
+          <t>Reference: From CHAK LUNG DRACO TSUI</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>9.19</v>
+        <v>206</v>
       </c>
       <c r="E22" t="n">
-        <v>28.62</v>
+        <v>75.72</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-04-23</t>
+          <t>2024-10-17</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Onerway</t>
+          <t>Reference: To NANXI LU</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>28.62</v>
+        <v>7.66</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>10</v>
+        <v>68.06</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2024-10-19</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>From Ona*hungrypanda Co, London</t>
+          <t>Reference: To CHO HON LING</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>14.28</v>
       </c>
       <c r="D24" t="n">
-        <v>4.17</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>4.17</v>
+        <v>53.78</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2024-10-20</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Apple Pay Top-Up by *1 573</t>
+          <t>Payment from Kw</t>
         </is>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="E25" t="n">
-        <v>74.17</v>
+        <v>100.28</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2024-10-20</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Reference: To Shuk Hei M</t>
+          <t>Reference: To NANXI LU &amp; PUI CHI ANGIE WONG</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>14.9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>59.27</v>
+        <v>90.28</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>To TS Kwong</t>
+          <t>Www.cardiff.ac.uk</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>51.86</v>
+        <v>46.5</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>7.41</v>
+        <v>43.78</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-04-24</t>
+          <t>2024-10-21</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Payment from Kw</t>
+          <t>Reference: From NANXI LU</t>
         </is>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="E28" t="n">
-        <v>1.91</v>
+        <v>49.78</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2024-10-22</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>Www.cardiff.ac.uk</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>9</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>40.78</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2024-10-22</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Payment from Lu N</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" t="n">
+        <v>8</v>
+      </c>
+      <c r="E30" t="n">
+        <v>246.78</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>2024-10-22</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Reference: To NANXI LU &amp; pul CHI ANGIE WONG</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>11</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>235.78</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>2024-10-22</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Reference: To NANXI LU &amp; PUI CHI ANGIE WONG</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>3</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>232.78</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2024-10-23</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Agoda</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>206.15</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>26.63</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2024-10-23</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Reference: From CHAK LUNG DRACO TSUI</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" t="n">
+        <v>80</v>
+      </c>
+      <c r="E34" t="n">
+        <v>35.63</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2024-10-24</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Www.cardiff.ac.uk</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>9</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>26.63</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2024-10-25</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
           <t>giffgaff</t>
         </is>
       </c>
-      <c r="C29" t="n">
+      <c r="C36" t="n">
         <v>10</v>
       </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
-        <v>1.91</v>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>16.63</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2024-10-26</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Payment from Wong Pui</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" t="n">
+        <v>50</v>
+      </c>
+      <c r="E37" t="n">
+        <v>26.63</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2024-10-26</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>To Chung Ho Ling</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>14.85</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2024-10-26</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>To Chung Ho Ling</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>5</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>6.78</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2024-10-29</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Payment from Wong Pui</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="E41" t="n">
+        <v>21.79</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Payment from Wong Pui</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>100</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>To TS Kwong</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>96.59</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>To Ho Pok Sze</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>88.09</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Payment from Wong Pui</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>60</v>
+      </c>
+      <c r="E45" t="n">
+        <v>38.09</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Reference: To NANXI LU &amp; PUI CHI ANGIE WONG</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>100</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>38.09</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2024-11-01</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>To TS Kwong</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>34.99</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2024-11-02</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Www.cardiff.ac.uk</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>9</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>25.99</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2024-11-02</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Www.cardiff.ac.uk</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>9</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2024-11-03</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Payment from Sze Ho Pok</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>50</v>
+      </c>
+      <c r="E50" t="n">
+        <v>29.72</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2024-11-03</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Payment from Wong Pui</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0</v>
+      </c>
+      <c r="D51" t="n">
+        <v>3</v>
+      </c>
+      <c r="E51" t="n">
+        <v>129.72</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2024-11-03</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Reference: To NANXI LU &amp; pul CHI ANGIE WONG</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>100</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>29.72</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2024-11-07</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>From: WONG POI, 74306082</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0</v>
+      </c>
+      <c r="D53" t="n">
+        <v>122</v>
+      </c>
+      <c r="E53" t="n">
+        <v>89.72</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2024-11-07</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>To Chun Hin Mok</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>60</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>29.72</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2024-11-08</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Reference: To NANXI LU &amp; pul CHI ANGIE WONG</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>15</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>14.72</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2024-11-14</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>To TS Kwong</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>2</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>12.72</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>From: WONG POI, 74306082</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>172.3</v>
+      </c>
+      <c r="E57" t="n">
+        <v>62.72</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>To Ho Pok Sze</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>13.4</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>49.32</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2024-11-21</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Reference: To SHUK HEI MOK</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>20</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>29.32</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2024-11-25</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>giffgaff</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>10</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>19.32</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2024-11-29</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>16.33</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2024-11-30</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Reference: From SHUK HEI MOK</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>0</v>
+      </c>
+      <c r="D62" t="n">
+        <v>50</v>
+      </c>
+      <c r="E62" t="n">
+        <v>29.33</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2024-12-04</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Reference: To MIU CHI CHOW</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>10</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>19.33</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2024-12-04</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Payment from Wong Pui</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="E64" t="n">
+        <v>141.33</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2024-12-04</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>To Tsz Ying Lo</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>65</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>76.33</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2024-12-14</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>To Chung Ho Ling</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>71.7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2024-12-14</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>To Ching Yin Siu</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>19.46</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>52.24</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2024-12-14</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>To TS Kwong</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>18.1</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>34.14</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2024-12-14</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Reference: To SHUK HEI MOK</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>19.64</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2024-12-14</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Payment from Wong Pui</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>0</v>
+      </c>
+      <c r="D70" t="n">
+        <v>22</v>
+      </c>
+      <c r="E70" t="n">
+        <v>191.94</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2024-12-14</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>To TS Kwong</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>172.3</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="n">
+        <v>19.64</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2024-12-14</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Payment from Wong Pui</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>0</v>
+      </c>
+      <c r="D72" t="n">
+        <v>8</v>
+      </c>
+      <c r="E72" t="n">
+        <v>69.64</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2024-12-14</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>To Chung Man Tai</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>26</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" t="n">
+        <v>43.64</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2024-12-15</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
+      </c>
+      <c r="E74" t="n">
+        <v>28.65</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2024-12-19</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>To TS Kwong</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" t="n">
+        <v>18.15</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2024-12-20</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Reference: From SHUK HEI MOK</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>100</v>
+      </c>
+      <c r="E76" t="n">
+        <v>31.38</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2024-12-21</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>To Deng Yew Darryl Chen</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
+      </c>
+      <c r="E77" t="n">
+        <v>28.98</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2024-12-25</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>giffgaff</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>10</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
+      </c>
+      <c r="E78" t="n">
+        <v>18.98</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2024-12-27</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>15.99</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2024-12-27</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Payment from Wong Pui</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>0</v>
+      </c>
+      <c r="D80" t="n">
+        <v>50</v>
+      </c>
+      <c r="E80" t="n">
+        <v>37.99</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2024-12-27</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Reference: To Miu Chi C</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>36.84</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Payment from Wong Pui</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E82" t="n">
+        <v>19.15</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Reference: To Nanxi L</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
+        <v>18</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2025-01-06</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Payment from Wong Pui</t>
+        </is>
+      </c>
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="E84" t="n">
+        <v>101.15</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2025-01-06</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>To Ho Pok Sze</t>
+        </is>
+      </c>
+      <c r="C85" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" t="n">
+        <v>99.56</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2025-01-06</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>To Korean Cultural Centre UK No.6</t>
+        </is>
+      </c>
+      <c r="C86" t="n">
+        <v>50</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
+      </c>
+      <c r="E86" t="n">
+        <v>49.56</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2025-01-10</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Reference: To Chak Lung Draco T</t>
+        </is>
+      </c>
+      <c r="C87" t="n">
+        <v>10</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
+      </c>
+      <c r="E87" t="n">
+        <v>39.56</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2025-01-11</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Onerway</t>
+        </is>
+      </c>
+      <c r="C88" t="n">
+        <v>20.91</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0</v>
+      </c>
+      <c r="E88" t="n">
+        <v>18.65</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2025-01-13</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Payment from Wong Pui</t>
+        </is>
+      </c>
+      <c r="C89" t="n">
+        <v>0</v>
+      </c>
+      <c r="D89" t="n">
+        <v>20.15</v>
+      </c>
+      <c r="E89" t="n">
+        <v>68.65000000000001</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2025-01-13</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>To Ho Pok Sze</t>
+        </is>
+      </c>
+      <c r="C90" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
+      </c>
+      <c r="E90" t="n">
+        <v>55.96</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2025-01-13</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>To TS Kwong</t>
+        </is>
+      </c>
+      <c r="C91" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
+      </c>
+      <c r="E91" t="n">
+        <v>46.71</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2025-01-13</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Payment from Kw</t>
+        </is>
+      </c>
+      <c r="C92" t="n">
+        <v>0</v>
+      </c>
+      <c r="D92" t="n">
+        <v>40.3</v>
+      </c>
+      <c r="E92" t="n">
+        <v>48.59</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2025-01-13</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Reference: From SHUK HEI MOK</t>
+        </is>
+      </c>
+      <c r="C93" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" t="n">
+        <v>20.15</v>
+      </c>
+      <c r="E93" t="n">
+        <v>50.47</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2025-01-15</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="C94" t="n">
+        <v>14.99</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
+      </c>
+      <c r="E94" t="n">
+        <v>35.48</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2025-01-16</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Onerway</t>
+        </is>
+      </c>
+      <c r="C95" t="n">
+        <v>22.21</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
+      </c>
+      <c r="E95" t="n">
+        <v>13.27</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Reference: From SHUK HEI MOK</t>
+        </is>
+      </c>
+      <c r="C96" t="n">
+        <v>0</v>
+      </c>
+      <c r="D96" t="n">
+        <v>10</v>
+      </c>
+      <c r="E96" t="n">
+        <v>33.42</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Payment from Kw</t>
+        </is>
+      </c>
+      <c r="C97" t="n">
+        <v>0</v>
+      </c>
+      <c r="D97" t="n">
+        <v>5</v>
+      </c>
+      <c r="E97" t="n">
+        <v>73.72</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2025-01-17</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Payment from Sze Ho Pok</t>
+        </is>
+      </c>
+      <c r="C98" t="n">
+        <v>0</v>
+      </c>
+      <c r="D98" t="n">
+        <v>72.77</v>
+      </c>
+      <c r="E98" t="n">
+        <v>93.87</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2025-01-18</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>To TS Kwong</t>
+        </is>
+      </c>
+      <c r="C99" t="n">
+        <v>13</v>
+      </c>
+      <c r="D99" t="n">
+        <v>0</v>
+      </c>
+      <c r="E99" t="n">
+        <v>80.87</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Palace Hair Limit</t>
+        </is>
+      </c>
+      <c r="C100" t="n">
+        <v>10</v>
+      </c>
+      <c r="D100" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" t="n">
+        <v>70.87</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2025-01-20</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>To Pui Chi Angie Wong</t>
+        </is>
+      </c>
+      <c r="C101" t="n">
+        <v>50</v>
+      </c>
+      <c r="D101" t="n">
+        <v>0</v>
+      </c>
+      <c r="E101" t="n">
+        <v>20.87</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2025-01-22</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Payment from Wong Pui</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>0</v>
+      </c>
+      <c r="D102" t="n">
+        <v>9</v>
+      </c>
+      <c r="E102" t="n">
+        <v>30.87</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2025-01-23</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="D103" t="n">
+        <v>0</v>
+      </c>
+      <c r="E103" t="n">
+        <v>25.88</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2025-01-23</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Www.cardiff.ac.uk</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>9</v>
+      </c>
+      <c r="D104" t="n">
+        <v>0</v>
+      </c>
+      <c r="E104" t="n">
+        <v>16.88</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2025-01-23</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Www.cardiff.ac.uk</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>9</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+      <c r="E105" t="n">
+        <v>7.88</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2025-01-27</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Payment from Wong Pui</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E106" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2025-01-28</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>giffgaff</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>10</v>
+      </c>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+      <c r="E107" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2025-01-28</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Payment from Sze Ho Pok</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>0</v>
+      </c>
+      <c r="D108" t="n">
+        <v>4</v>
+      </c>
+      <c r="E108" t="n">
+        <v>75.65000000000001</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2025-01-28</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>To Ho Pok Sze</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="D109" t="n">
+        <v>0</v>
+      </c>
+      <c r="E109" t="n">
+        <v>61.89</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2025-01-29</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Jingxingexp</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>59.01</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0</v>
+      </c>
+      <c r="E110" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2025-01-30</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Reference: From CHAK LUNG DRACO TSUI</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>100</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1.88</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2025-01-30</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Payment from Sze Ho Pok</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>0</v>
+      </c>
+      <c r="D112" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="E112" t="n">
+        <v>16.38</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2025-01-30</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Payment from Wong Pui</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>0</v>
+      </c>
+      <c r="D113" t="n">
+        <v>9</v>
+      </c>
+      <c r="E113" t="n">
+        <v>20.38</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2025-01-31</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Www.cardiff.ac.uk</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>9</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2025-01-31</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Www.cardiff.ac.uk</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>9</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0</v>
+      </c>
+      <c r="E115" t="n">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2025-02-03</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Payment from Wong Pui</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>0</v>
+      </c>
+      <c r="D116" t="n">
+        <v>8</v>
+      </c>
+      <c r="E116" t="n">
+        <v>102.38</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2025-02-03</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>To TS Kwong</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>6</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0</v>
+      </c>
+      <c r="E117" t="n">
+        <v>96.38</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2025-02-03</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>To Ho Pok Sze</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" t="n">
+        <v>94.79000000000001</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Payment from Sze Ho Pok</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>0</v>
+      </c>
+      <c r="D119" t="n">
+        <v>20.5</v>
+      </c>
+      <c r="E119" t="n">
+        <v>99.29000000000001</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2025-02-05</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Reference: From CHAK LUNG DRACO TSUI</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>0</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0</v>
+      </c>
+      <c r="E120" t="n">
+        <v>108.29</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2025-02-08</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Www.cardiff.ac.uk</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>9</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" t="n">
+        <v>99.29000000000001</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2025-02-08</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Www.cardiff.ac.uk</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>9</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0</v>
+      </c>
+      <c r="E122" t="n">
+        <v>90.29000000000001</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Www.cardiff.ac.uk</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>9</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0</v>
+      </c>
+      <c r="E123" t="n">
+        <v>81.29000000000001</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2025-02-13</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Www.cardiff.ac.uk</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>9</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0</v>
+      </c>
+      <c r="E124" t="n">
+        <v>72.29000000000001</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Reference: From CHAK LUNG DRACO TSUI</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" t="n">
+        <v>90.29000000000001</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Www.cardiff.ac.uk</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>9</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" t="n">
+        <v>81.29000000000001</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2025-02-18</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Www.cardiff.ac.uk</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>9</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" t="n">
+        <v>72.29000000000001</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2025-02-21</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>To TS Kwong</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>10</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" t="n">
+        <v>61.29</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Www.cardiff.ac.uk</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>9</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0</v>
+      </c>
+      <c r="E129" t="n">
+        <v>52.29</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Www.cardiff.ac.uk</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>9</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0</v>
+      </c>
+      <c r="E130" t="n">
+        <v>43.29</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Payment from Sze Ho Pok</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>0</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0</v>
+      </c>
+      <c r="E131" t="n">
+        <v>63.79</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2025-02-25</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Www.cardiff.ac.uk</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>9</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0</v>
+      </c>
+      <c r="E132" t="n">
+        <v>54.79</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2025-02-25</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Www.cardiff.ac.uk</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>9</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0</v>
+      </c>
+      <c r="E133" t="n">
+        <v>45.79</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2025-02-25</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Reference: To Shuk Hei M</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0</v>
+      </c>
+      <c r="E134" t="n">
+        <v>32.29</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2025-02-27</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>giffgaff</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>10</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>22.29</v>
       </c>
     </row>
   </sheetData>

--- a/2.0/extracted_data.xlsx
+++ b/2.0/extracted_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,70 +470,70 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Payment from Sze Ho Pok</t>
+          <t>Apple Pay Top-Up by *2180</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>68.27</v>
+        <v>43.29</v>
       </c>
       <c r="E2" t="n">
-        <v>90.56</v>
+        <v>56.54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-01</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Payment from Wong Pui</t>
+          <t>Apple Pay Top-Up by *1 573</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>83.15000000000001</v>
+        <v>4</v>
       </c>
       <c r="E3" t="n">
-        <v>173.71</v>
+        <v>70.54000000000001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-03-01</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Payment from Wong Pui</t>
+          <t>Www.cardiff.ac.uk</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>79.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>253.11</v>
+        <v>61.54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-04-03</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -548,118 +548,118 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>244.11</v>
+        <v>52.54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-04-04</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Www.cardiff.ac.uk</t>
+          <t>Sainsbury's</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>9</v>
+        <v>3.75</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>235.11</v>
+        <v>48.79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Reference: To Chak Lung Draco T</t>
+          <t>Www.cardiff.ac.uk</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>29.58</v>
+        <v>9</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>205.53</v>
+        <v>39.79</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-04-05</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Reference: To Chak Lung Draco T</t>
+          <t>Www.cardiff.ac.uk</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2.73</v>
+        <v>9</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>202.8</v>
+        <v>30.79</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2025-03-05</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Payment from Sze Ho Pok</t>
+          <t>To Ching Yin Siu</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>10.15</v>
       </c>
       <c r="D9" t="n">
-        <v>5.85</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>208.65</v>
+        <v>20.64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-03-07</t>
+          <t>2025-04-11</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Reference: From SHUK HEI MOK</t>
+          <t>Apple Pay Top-Up by *1 573</t>
         </is>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1.83</v>
+        <v>30</v>
       </c>
       <c r="E10" t="n">
-        <v>210.48</v>
+        <v>50.64</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-03-08</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -674,13 +674,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>201.48</v>
+        <v>41.64</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-03-08</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -695,448 +695,364 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>192.48</v>
+        <v>32.64</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-03-08</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>To Pui Chi Angie Wong</t>
+          <t>Www.cardiff.ac.uk</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>92.48</v>
+        <v>23.64</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-04-12</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>To Yin Tong Lee</t>
+          <t>Www.cardiff.ac.uk</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>23.8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>68.68000000000001</v>
+        <v>14.64</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-03-11</t>
+          <t>2025-04-14</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>To TS Kwong</t>
+          <t>Apple Pay Top-Up by *2180</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.92</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E15" t="n">
-        <v>66.76000000000001</v>
+        <v>64.64</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-04-15</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Www.cardiff.ac.uk</t>
+          <t>Onerway</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>9</v>
+        <v>31.26</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>57.76</v>
+        <v>33.38</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-03-13</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Www.cardiff.ac.uk</t>
+          <t>Sainsbury's</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>9</v>
+        <v>3.69</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>48.76</v>
+        <v>29.69</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-03-14</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Www.cardiff.ac.uk</t>
+          <t>KFC</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>9</v>
+        <v>5.97</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>39.76</v>
+        <v>23.72</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-03-18</t>
+          <t>2025-04-17</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>To TS Kwong</t>
+          <t>Www.cardiff.ac.uk</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2.87</v>
+        <v>9</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>26.89</v>
+        <v>14.72</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Apple Pay Top-Up by *1 573</t>
+          <t>Apple Pay Top-Up by *2180</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>2.77</v>
+        <v>10</v>
       </c>
       <c r="E20" t="n">
-        <v>29.66</v>
+        <v>24.72</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-03-21</t>
+          <t>2025-04-21</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Reference: From SHUK HEI MOK</t>
+          <t>To Chung Ho Ling</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>5.29</v>
       </c>
       <c r="D21" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>31.86</v>
+        <v>19.43</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-04-22</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Onerway</t>
+          <t>Apple Pay Top-Up by *2180</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>29.66</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>9.19</v>
       </c>
       <c r="E22" t="n">
-        <v>2.2</v>
+        <v>28.62</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-23</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Apple Pay Top-Up by *1 573</t>
+          <t>Onerway</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>28.62</v>
       </c>
       <c r="D23" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>52.2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Www.cardiff.ac.uk</t>
+          <t>From Ona*hungrypanda Co, London</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>4.17</v>
       </c>
       <c r="E24" t="n">
-        <v>43.2</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Www.cardiff.ac.uk</t>
+          <t>Apple Pay Top-Up by *1 573</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E25" t="n">
-        <v>34.2</v>
+        <v>74.17</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Payment from Wong Pui</t>
+          <t>Reference: To Shuk Hei M</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>14.9</v>
       </c>
       <c r="D26" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>154.2</v>
+        <v>59.27</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-03-26</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>To Neo Opco (uk) Limited</t>
+          <t>To TS Kwong</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>120</v>
+        <v>51.86</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>34.2</v>
+        <v>7.41</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-04-24</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>giffgaff</t>
+          <t>Payment from Kw</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="E28" t="n">
-        <v>24.2</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Onerway</t>
+          <t>giffgaff</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>22.95</v>
+        <v>10</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2025-03-30</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Apple Pay Top-Up by *1 573</t>
-        </is>
-      </c>
-      <c r="C30" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" t="n">
-        <v>20</v>
-      </c>
-      <c r="E30" t="n">
-        <v>21.25</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2025-03-31</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Www.cardiff.ac.uk</t>
-        </is>
-      </c>
-      <c r="C31" t="n">
-        <v>9</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
-      </c>
-      <c r="E31" t="n">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2025-03-31</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Www.cardiff.ac.uk</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>9</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2025-03-31</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Apple Pay Top-Up by *2180</t>
-        </is>
-      </c>
-      <c r="C33" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" t="n">
-        <v>10</v>
-      </c>
-      <c r="E33" t="n">
-        <v>13.25</v>
+        <v>1.91</v>
       </c>
     </row>
   </sheetData>
